--- a/Goose_5/LMR50410/Project Outputs for LMR50410/BOM/Bill of Materials-LMR50410.xlsx
+++ b/Goose_5/LMR50410/Project Outputs for LMR50410/BOM/Bill of Materials-LMR50410.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chawthri\Documents\GitHub\Motor-Control\Goose_5\LMR50410\Project Outputs for LMR50410\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3F6A617-6ED4-4B6C-AF5D-03DB50E1B8A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{69EA43B2-7A96-48D7-AECF-74D224E8AB29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="20445" windowHeight="11835" xr2:uid="{38C2E0DF-57AE-4222-AD85-EBC1186E9D34}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="20445" windowHeight="11835" xr2:uid="{83BD155C-8EC0-4AC7-AAA8-07E6B2547622}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-LMR50410" sheetId="1" r:id="rId1"/>
@@ -486,7 +486,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B78AA4-09AA-4008-9DAD-E0D4E7A149B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC5989CB-E419-4223-9A02-572B8E53300A}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
